--- a/biology/Botanique/Prêle_des_marais/Prêle_des_marais.xlsx
+++ b/biology/Botanique/Prêle_des_marais/Prêle_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%AAle_des_marais</t>
+          <t>Prêle_des_marais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Equisetum palustre
 La Prêle des marais (Equisetum palustre) est une espèce végétale de la famille des Equisetaceae. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pr%C3%AAle_des_marais</t>
+          <t>Prêle_des_marais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez cette espèce les tiges sont capables de porter à la fois des rameaux et des épis reproducteurs.
-Les rameaux, placés en verticille, ont une section quadrangulaire. La gaine dentée correspondant aux feuilles porte de 6 à 12 dents[1].
+Les rameaux, placés en verticille, ont une section quadrangulaire. La gaine dentée correspondant aux feuilles porte de 6 à 12 dents.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pr%C3%AAle_des_marais</t>
+          <t>Prêle_des_marais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante de marais ou fossés, voire tourbières ; espèce héliophile et hygrophile[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante de marais ou fossés, voire tourbières ; espèce héliophile et hygrophile.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pr%C3%AAle_des_marais</t>
+          <t>Prêle_des_marais</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De par la présence de thiaminase dans sa composition, elle est toxique[3] et a été responsable d'empoisonnement de bétail, notamment de chevaux[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De par la présence de thiaminase dans sa composition, elle est toxique et a été responsable d'empoisonnement de bétail, notamment de chevaux.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pr%C3%AAle_des_marais</t>
+          <t>Prêle_des_marais</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Equisetum palustre var. americanum Vict.
 Equisetum palustre var. polystachion Weigel
